--- a/Final_Mission/기획서/New 기획/자각 마녀 스킬 구성 문서-미완.xlsx
+++ b/Final_Mission/기획서/New 기획/자각 마녀 스킬 구성 문서-미완.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final_Mission_Path2\Final_Mission_Path2\Final_Mission\기획서\New 기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LM\Final_Mission_\Final_Mission\기획서\New 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0AA9E5-C6A3-4545-AB4A-24ACBF7EA6C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1" xr2:uid="{8AC4E0A9-93E1-4BDC-B0B1-CE9874AED8B0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2" xr2:uid="{8AC4E0A9-93E1-4BDC-B0B1-CE9874AED8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="스킬 기본 인덱스 구조" sheetId="6" r:id="rId1"/>
@@ -860,68 +861,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -950,16 +894,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -971,17 +912,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1000,6 +935,72 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2690,181 +2691,181 @@
   <sheetData>
     <row r="2" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="J4" s="34" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="J4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="33"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="J5" s="26" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="J7" s="35" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="J7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="28"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="28"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="31"/>
+      <c r="F9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2881,7 +2882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06888FAC-F569-446B-AA03-5DC2FECA737E}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
@@ -2898,676 +2899,684 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
     </row>
     <row r="17" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="21">
+      <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="3">
         <v>10</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="3">
         <v>15</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="3">
         <v>0.4</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="3">
         <v>4</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="3">
         <v>20</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="3">
         <v>3</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22" t="s">
+      <c r="L17" s="3"/>
+      <c r="M17" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
     </row>
     <row r="18" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="21">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="3">
         <v>20</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="3">
         <v>4</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="3">
         <v>20</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="3">
         <v>0.4</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="3">
         <v>40</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="3">
         <v>1</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
     </row>
     <row r="19" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="21">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="3">
         <v>40</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="3">
         <v>40</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="3">
         <v>0.4</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="3">
         <v>4</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="3">
         <v>3</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="3">
         <v>3</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
     </row>
     <row r="20" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21">
+      <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="3">
         <v>60</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="3">
         <v>60</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="3">
         <v>0.4</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="3">
         <v>6</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="3">
         <v>70</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="3">
         <v>4</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22" t="s">
+      <c r="L20" s="3"/>
+      <c r="M20" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
     </row>
     <row r="21" spans="1:20" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="21">
+      <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="3">
         <v>100</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="3">
         <v>5</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="3">
         <v>130</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="3">
         <v>2</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="3">
         <v>10</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="3">
         <v>80</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="3">
         <v>3</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="41"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="32"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="32"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="32"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="5"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32"/>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="5"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="32"/>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="5"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="5"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="5"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="32"/>
     </row>
     <row r="37" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32"/>
     </row>
     <row r="38" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="5"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="32"/>
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="32"/>
     </row>
     <row r="40" spans="6:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:D12"/>
+    <mergeCell ref="E2:H12"/>
+    <mergeCell ref="I2:K12"/>
+    <mergeCell ref="L2:O12"/>
     <mergeCell ref="F22:L23"/>
     <mergeCell ref="F24:L40"/>
     <mergeCell ref="M16:T16"/>
@@ -3576,14 +3585,6 @@
     <mergeCell ref="M19:T19"/>
     <mergeCell ref="M20:T20"/>
     <mergeCell ref="M21:T21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:D12"/>
-    <mergeCell ref="E2:H12"/>
-    <mergeCell ref="I2:K12"/>
-    <mergeCell ref="L2:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3595,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF56CDA5-4097-41E3-A1DA-7D9EAA079086}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:L40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3612,678 +3613,686 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
     </row>
     <row r="17" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="21">
+      <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="3">
         <v>12</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="3">
         <v>6</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="3">
         <v>0.4</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="3">
         <v>4</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="3">
         <v>30</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="3">
         <v>3</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22" t="s">
+      <c r="L17" s="3"/>
+      <c r="M17" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
     </row>
     <row r="18" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="21">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="3">
         <v>30</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="3">
         <v>60</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="3">
         <v>0.4</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
     </row>
     <row r="19" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="21">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="3">
         <v>40</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="3">
         <v>60</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="3">
         <v>0.4</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="3">
         <v>2</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="3">
         <v>0</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
     </row>
     <row r="20" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21">
+      <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="3">
         <v>20</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="3">
         <v>12</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="3">
         <v>0.4</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="3">
         <v>3</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="3">
         <v>20</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="3">
         <v>4</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="M20" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
     </row>
     <row r="21" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="21">
+      <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="3">
         <v>90</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="3">
         <v>180</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="3">
         <v>2</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="3">
         <v>10</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="3">
         <v>5</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="41"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="32"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="32"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="32"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="5"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32"/>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="5"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="32"/>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="5"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="5"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="5"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="32"/>
     </row>
     <row r="37" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32"/>
     </row>
     <row r="38" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="5"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="32"/>
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="32"/>
     </row>
     <row r="40" spans="6:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:D12"/>
+    <mergeCell ref="E2:H12"/>
+    <mergeCell ref="I2:K12"/>
+    <mergeCell ref="L2:O12"/>
     <mergeCell ref="F22:L23"/>
     <mergeCell ref="F24:L40"/>
     <mergeCell ref="M16:T16"/>
@@ -4292,14 +4301,6 @@
     <mergeCell ref="M19:T19"/>
     <mergeCell ref="M20:T20"/>
     <mergeCell ref="M21:T21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:D12"/>
-    <mergeCell ref="E2:H12"/>
-    <mergeCell ref="I2:K12"/>
-    <mergeCell ref="L2:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4328,759 +4329,757 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="14"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="41"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="16"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="42"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="16"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="42"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="16"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="42"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="16"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="42"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="16"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="42"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="16"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="42"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="16"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="42"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="16"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="42"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="16"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="42"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="16"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="42"/>
     </row>
     <row r="12" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="19"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="43"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
     </row>
     <row r="17" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="21">
+      <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="3">
         <v>12</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="3">
         <v>8</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="3">
         <v>0.4</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="3">
         <v>4</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="3">
         <v>20</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22" t="s">
+      <c r="L17" s="3"/>
+      <c r="M17" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
     </row>
     <row r="18" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="21">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="3">
         <v>25</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="3">
         <v>10</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="3">
         <v>0.4</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="3">
         <v>4</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="3">
         <v>8</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="3">
         <v>2</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22" t="s">
+      <c r="L18" s="3"/>
+      <c r="M18" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
     </row>
     <row r="19" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="21">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="3">
         <v>40</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="3">
         <v>10</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="3">
         <v>0.4</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="3">
         <v>8</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="3">
         <v>15</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="3">
         <v>3</v>
       </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="22" t="s">
+      <c r="L19" s="3"/>
+      <c r="M19" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
     </row>
     <row r="20" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21">
+      <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="3">
         <v>40</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="3">
         <v>12</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="3">
         <v>0.4</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="3">
         <v>6</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="3">
         <v>20</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="3">
         <v>4</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22" t="s">
+      <c r="L20" s="3"/>
+      <c r="M20" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
     </row>
     <row r="21" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="21">
+      <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="3">
         <v>110</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="3">
         <v>5</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="15">
         <v>180</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="15">
         <v>2</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="15">
         <v>10</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="15">
         <v>80</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="15">
         <v>5</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="22" t="s">
+      <c r="L21" s="15"/>
+      <c r="M21" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="41"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="32"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="32"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="32"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="5"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32"/>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="5"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="32"/>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="5"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="5"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="5"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="32"/>
     </row>
     <row r="37" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32"/>
     </row>
     <row r="38" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="5"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="32"/>
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="32"/>
     </row>
     <row r="40" spans="6:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E2:L12"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O12"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="P2:V12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D12"/>
+    <mergeCell ref="E1:L1"/>
     <mergeCell ref="F24:L40"/>
     <mergeCell ref="F22:L23"/>
     <mergeCell ref="M16:T16"/>
@@ -5089,9 +5088,11 @@
     <mergeCell ref="M19:T19"/>
     <mergeCell ref="M20:T20"/>
     <mergeCell ref="M21:T21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D12"/>
-    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="E2:L12"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O12"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="P2:V12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5120,216 +5121,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="L14" t="s">
@@ -5373,16 +5374,16 @@
       <c r="L16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
     </row>
     <row r="17" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17">
@@ -5418,16 +5419,16 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
     </row>
     <row r="18" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18">
@@ -5466,16 +5467,16 @@
       <c r="L18" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
     </row>
     <row r="19" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
@@ -5514,16 +5515,16 @@
       <c r="L19" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
     </row>
     <row r="20" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
@@ -5562,16 +5563,16 @@
       <c r="L20" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
     </row>
     <row r="21" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21">
@@ -5607,192 +5608,200 @@
       <c r="K21">
         <v>5</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="41"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="32"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="32"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="32"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="5"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32"/>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="5"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="32"/>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="5"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="5"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="5"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="32"/>
     </row>
     <row r="37" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32"/>
     </row>
     <row r="38" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="5"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="32"/>
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="32"/>
     </row>
     <row r="40" spans="6:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:D12"/>
+    <mergeCell ref="E2:H12"/>
+    <mergeCell ref="I2:K12"/>
+    <mergeCell ref="L2:O12"/>
     <mergeCell ref="F22:L23"/>
     <mergeCell ref="F24:L40"/>
     <mergeCell ref="M16:T16"/>
@@ -5801,14 +5810,6 @@
     <mergeCell ref="M19:T19"/>
     <mergeCell ref="M20:T20"/>
     <mergeCell ref="M21:T21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:D12"/>
-    <mergeCell ref="E2:H12"/>
-    <mergeCell ref="I2:K12"/>
-    <mergeCell ref="L2:O12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5837,216 +5838,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
@@ -6085,16 +6086,16 @@
       <c r="L16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
     </row>
     <row r="17" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17">
@@ -6133,16 +6134,16 @@
       <c r="L17" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
     </row>
     <row r="18" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18">
@@ -6178,16 +6179,16 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
     </row>
     <row r="19" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
@@ -6223,16 +6224,16 @@
       <c r="K19">
         <v>3</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
     </row>
     <row r="20" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
@@ -6268,16 +6269,16 @@
       <c r="K20">
         <v>4</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
     </row>
     <row r="21" spans="1:20" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21">
@@ -6316,208 +6317,208 @@
       <c r="L21" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="41"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="32"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="32"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="32"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="5"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32"/>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="5"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="32"/>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="5"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="5"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="5"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="32"/>
     </row>
     <row r="37" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32"/>
     </row>
     <row r="38" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="5"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="32"/>
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.4">
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="32"/>
     </row>
     <row r="40" spans="6:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M17:T17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D12"/>
+    <mergeCell ref="E2:H12"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="I2:K12"/>
+    <mergeCell ref="L2:O12"/>
     <mergeCell ref="F22:L23"/>
     <mergeCell ref="F24:L40"/>
     <mergeCell ref="M18:T18"/>
     <mergeCell ref="M19:T19"/>
     <mergeCell ref="M20:T20"/>
     <mergeCell ref="M21:T21"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="I2:K12"/>
-    <mergeCell ref="L2:O12"/>
-    <mergeCell ref="M17:T17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D12"/>
-    <mergeCell ref="E2:H12"/>
-    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
